--- a/fuentes/contenidos/grado10/guion05/SolicitudGrafica_CN_10_05.xlsx
+++ b/fuentes/contenidos/grado10/guion05/SolicitudGrafica_CN_10_05.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="hX79YNGfHMUCcosWMoH0GQuhNo2gkebFrfW3do2TOcvwqaujU9m0uwOL5UkRtWEspAy/ISD2JB8+jf057W9mVA==" workbookSaltValue="uRz/CDpmZ5ecKheoN1C0Jw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="2360" yWindow="-1260" windowWidth="21220" windowHeight="14840" tabRatio="500"/>
+    <workbookView xWindow="14660" yWindow="0" windowWidth="10900" windowHeight="14360" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Solicitud gráfica" sheetId="1" r:id="rId1"/>
@@ -2653,8 +2653,8 @@
   <sheetPr codeName="Hoja1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:P108"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G12" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0"/>
